--- a/irecodes-master/demand_damaged_t8.xlsx
+++ b/irecodes-master/demand_damaged_t8.xlsx
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.183365175513637E-07</v>
+        <v>0.001604491810116861</v>
       </c>
       <c r="E2">
-        <v>-0.002314814814815656</v>
+        <v>-0.002314814814816049</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>7.025642826883488E-07</v>
+        <v>0.002174762994634804</v>
       </c>
       <c r="H2">
-        <v>-0.002314814814815656</v>
+        <v>-0.002314814814816049</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>7.775003892301667E-07</v>
+        <v>0.002406737700232651</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>2.341867481987512E-07</v>
+        <v>0.0007249209940179215</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>-0.03095693173642673</v>
+        <v>-0.023045152622187</v>
       </c>
       <c r="AZ2">
-        <v>-0.03095693175176661</v>
+        <v>-0.02304515263392713</v>
       </c>
     </row>
   </sheetData>
